--- a/bin-debug/config/terrains.xlsx
+++ b/bin-debug/config/terrains.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,143 +65,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AW_terrain_road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_pipeseam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_shoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_mountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_reef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0,0,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,3,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1,1,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1,2,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3,4,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,2,3,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2,0,0,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,3,4,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0,0,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,2,2,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross,bend,line,branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend,line,branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend,line,head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_sea</t>
+  </si>
+  <si>
+    <t>AW_terrain_sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AW_terrain_river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_pipeseam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_shoal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_missile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_mountain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_reef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,0,0,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2,3,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1,1,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1,2,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,3,4,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,2,3,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2,0,0,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,3,4,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,0,0,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,2,2,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,1</t>
+  </si>
+  <si>
+    <t>AW_terrain_river</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,299 +579,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/bin-debug/config/terrains.xlsx
+++ b/bin-debug/config/terrains.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,221 +30,228 @@
     <t>blank</t>
   </si>
   <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>reef</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>AW_terrain_blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_pipeseam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_shoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_mountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_reef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0,0,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,3,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1,1,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1,2,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3,4,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,2,3,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2,0,0,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,3,4,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0,0,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,2,2,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross,bend,line,branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend,line,branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend,line,head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_sea</t>
+  </si>
+  <si>
+    <t>AW_terrain_sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_river</t>
+  </si>
+  <si>
+    <t>AW_terrain_river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpipeseam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missilesilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoalne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pipe</t>
-  </si>
-  <si>
-    <t>pipeseam</t>
-  </si>
-  <si>
-    <t>bridge</t>
-  </si>
-  <si>
-    <t>shoal</t>
-  </si>
-  <si>
-    <t>missile</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>plain</t>
-  </si>
-  <si>
-    <t>reef</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>AW_terrain_blank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_pipeseam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_shoal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_missile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_mountain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_reef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,0,0,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2,3,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1,1,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1,2,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,3,4,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,2,3,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2,0,0,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,3,4,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,0,0,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,2,2,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross,bend,line,branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bend,line,branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bend,line,head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关联地形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_sea</t>
-  </si>
-  <si>
-    <t>AW_terrain_sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_river</t>
-  </si>
-  <si>
-    <t>AW_terrain_river</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +262,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -273,8 +303,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -286,8 +376,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="21">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,22 +688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -601,291 +711,291 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -894,46 +1004,61 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/bin-debug/config/terrains.xlsx
+++ b/bin-debug/config/terrains.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,173 +77,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AW_terrain_reef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0,0,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,3,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1,1,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1,2,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3,4,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,2,3,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2,0,0,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,3,4,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0,0,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,2,2,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,2,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross,bend,line,branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend,line,head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_sea</t>
+  </si>
+  <si>
+    <t>AW_terrain_sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AW_terrain_river</t>
+  </si>
+  <si>
+    <t>AW_terrain_river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpipeseam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missilesilo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoalne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AW_terrain_plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_reef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,0,0,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2,3,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1,1,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1,2,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,3,4,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,2,3,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2,0,0,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,3,4,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1,0,0,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,2,2,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,2,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross,bend,line,branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bend,line,branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bend,line,head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关联地形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_sea</t>
-  </si>
-  <si>
-    <t>AW_terrain_sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AW_terrain_river</t>
-  </si>
-  <si>
-    <t>AW_terrain_river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpipeseam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missilesilo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoalne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,8 +299,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -376,7 +420,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -387,6 +431,14 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -397,6 +449,14 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,7 +752,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -711,30 +771,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -743,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -763,18 +823,18 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -783,36 +843,36 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -820,22 +880,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -843,30 +903,30 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -875,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -889,30 +949,27 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -921,13 +978,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -935,22 +992,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -958,19 +1015,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -978,19 +1035,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1004,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
